--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="806" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="806" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -30,12 +30,12 @@
     <sheet name="add_user" sheetId="23" r:id="rId21"/>
     <sheet name="add_strategy" sheetId="24" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="383">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1335,10 +1335,6 @@
   </si>
   <si>
     <t>gyrlogin3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-09-08 17:21:31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1868,7 +1864,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1982,6 +1978,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2284,11 +2283,11 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2336,14 +2335,14 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="12" t="s">
         <v>52</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="13">
         <v>4</v>
       </c>
@@ -2365,7 +2364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25">
+    <row r="3" spans="1:3" ht="15.6">
       <c r="A3" s="13">
         <v>4</v>
       </c>
@@ -2373,10 +2372,10 @@
         <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6">
       <c r="A4" s="13">
         <v>4</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -2401,17 +2400,17 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="30.875" customWidth="1"/>
-    <col min="3" max="3" width="31.25" customWidth="1"/>
-    <col min="4" max="4" width="45.75" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="4" width="45.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="17.399999999999999">
       <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
+    <row r="2" spans="1:6" ht="15.6">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
+    <row r="3" spans="1:6" ht="15.6">
       <c r="A3" s="13">
         <v>0</v>
       </c>
@@ -2462,7 +2461,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>73</v>
@@ -2486,14 +2485,14 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="12" t="s">
         <v>52</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="13">
         <v>4</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25">
+    <row r="3" spans="1:3" ht="15.6">
       <c r="A3" s="13">
         <v>4</v>
       </c>
@@ -2523,7 +2522,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2540,14 +2539,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="8" t="s">
         <v>55</v>
       </c>
@@ -2558,7 +2557,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="9" t="s">
         <v>56</v>
       </c>
@@ -2583,10 +2582,10 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -2614,10 +2613,10 @@
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="C2" s="4">
         <v>3389</v>
@@ -2637,7 +2636,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C3" s="4">
         <v>3389</v>
@@ -2662,17 +2661,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -2773,7 +2772,7 @@
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="16" t="s">
@@ -2781,7 +2780,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="16"/>
@@ -2873,19 +2872,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
@@ -2908,11 +2907,11 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2999,12 +2998,12 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3062,11 +3061,11 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3114,20 +3113,20 @@
       <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="13.125" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75">
+    <row r="1" spans="1:21" ht="17.399999999999999">
       <c r="A1" s="20" t="s">
         <v>164</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.25">
+    <row r="2" spans="1:21" ht="15.6">
       <c r="A2" s="21" t="s">
         <v>184</v>
       </c>
@@ -3233,7 +3232,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:21" ht="14.25">
+    <row r="3" spans="1:21" ht="15.6">
       <c r="A3" s="21" t="s">
         <v>190</v>
       </c>
@@ -3279,7 +3278,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.25">
+    <row r="4" spans="1:21" ht="15.6">
       <c r="A4" s="21" t="s">
         <v>206</v>
       </c>
@@ -3294,7 +3293,7 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>210</v>
@@ -3343,17 +3342,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="6.75" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="8" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3941,13 +3940,13 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -4004,16 +4003,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
-    <col min="13" max="13" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4046,7 +4045,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>139</v>
@@ -4695,7 +4694,9 @@
       <c r="F29" s="32">
         <v>1</v>
       </c>
-      <c r="G29" s="31"/>
+      <c r="G29" s="38">
+        <v>44082.723275462966</v>
+      </c>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
@@ -4718,9 +4719,7 @@
       <c r="F30" s="32">
         <v>1</v>
       </c>
-      <c r="G30" s="33" t="s">
-        <v>318</v>
-      </c>
+      <c r="G30" s="33"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
@@ -4731,11 +4730,11 @@
     <row r="31" spans="1:13">
       <c r="A31" s="31"/>
       <c r="B31" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E31" s="32">
         <v>1</v>
@@ -4743,7 +4742,9 @@
       <c r="F31" s="32">
         <v>1</v>
       </c>
-      <c r="G31" s="31"/>
+      <c r="G31" s="38">
+        <v>44082.723275462966</v>
+      </c>
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
@@ -4754,13 +4755,13 @@
     <row r="32" spans="1:13">
       <c r="A32" s="31"/>
       <c r="B32" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C32" s="31">
         <v>8</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E32" s="32">
         <v>1</v>
@@ -4773,25 +4774,25 @@
         <v>8</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
       <c r="L32" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M32" s="31"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="31"/>
       <c r="B33" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C33" s="31">
         <v>8</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E33" s="32">
         <v>1</v>
@@ -4804,7 +4805,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
@@ -4816,11 +4817,11 @@
     <row r="34" spans="1:13">
       <c r="A34" s="31"/>
       <c r="B34" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E34" s="32">
         <v>1</v>
@@ -4839,11 +4840,11 @@
     <row r="35" spans="1:13">
       <c r="A35" s="31"/>
       <c r="B35" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E35" s="32">
         <v>1</v>
@@ -4860,17 +4861,17 @@
       </c>
       <c r="L35" s="31"/>
       <c r="M35" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="31"/>
       <c r="B36" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C36" s="31"/>
       <c r="D36" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E36" s="32">
         <v>1</v>
@@ -4889,11 +4890,11 @@
     <row r="37" spans="1:13">
       <c r="A37" s="31"/>
       <c r="B37" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C37" s="31"/>
       <c r="D37" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E37" s="32">
         <v>1</v>
@@ -4912,11 +4913,11 @@
     <row r="38" spans="1:13">
       <c r="A38" s="31"/>
       <c r="B38" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C38" s="31"/>
       <c r="D38" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E38" s="32">
         <v>1</v>
@@ -4935,11 +4936,11 @@
     <row r="39" spans="1:13">
       <c r="A39" s="31"/>
       <c r="B39" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E39" s="31">
         <v>1</v>
@@ -4958,11 +4959,11 @@
     <row r="40" spans="1:13">
       <c r="A40" s="31"/>
       <c r="B40" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E40" s="31">
         <v>1</v>
@@ -4975,21 +4976,21 @@
       <c r="I40" s="31"/>
       <c r="J40" s="31"/>
       <c r="K40" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L40" s="31"/>
       <c r="M40" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="31"/>
       <c r="B41" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E41" s="31">
         <v>1</v>
@@ -5002,21 +5003,21 @@
       <c r="I41" s="31"/>
       <c r="J41" s="31"/>
       <c r="K41" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="31"/>
       <c r="B42" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C42" s="31"/>
       <c r="D42" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E42" s="31">
         <v>1</v>
@@ -5035,13 +5036,13 @@
     <row r="43" spans="1:13">
       <c r="A43" s="31"/>
       <c r="B43" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C43" s="31">
         <v>8</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E43" s="31">
         <v>1</v>
@@ -5054,23 +5055,23 @@
         <v>8</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J43" s="31"/>
       <c r="K43" s="31"/>
       <c r="L43" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M43" s="31"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="31"/>
       <c r="B44" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C44" s="31"/>
       <c r="D44" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E44" s="31">
         <v>1</v>
@@ -5083,7 +5084,7 @@
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
       <c r="K44" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
@@ -5111,20 +5112,20 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:10" ht="17.399999999999999">
       <c r="A1" s="20" t="s">
         <v>269</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="27">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>259</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="27">
+    <row r="3" spans="1:10" ht="28.8">
       <c r="A3" s="4" t="s">
         <v>274</v>
       </c>
@@ -5235,12 +5236,12 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -5259,10 +5260,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
@@ -5286,10 +5287,10 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5330,14 +5331,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="8" t="s">
         <v>58</v>
       </c>
@@ -5348,7 +5349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
@@ -5359,7 +5360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25">
+    <row r="3" spans="1:3" ht="15.6">
       <c r="A3" s="9" t="s">
         <v>67</v>
       </c>
@@ -5370,7 +5371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25">
+    <row r="4" spans="1:3" ht="15.6">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -5381,7 +5382,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25">
+    <row r="5" spans="1:3" ht="15.6">
       <c r="A5" s="9" t="s">
         <v>67</v>
       </c>
@@ -5392,7 +5393,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25">
+    <row r="6" spans="1:3" ht="15.6">
       <c r="A6" s="9" t="s">
         <v>67</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25">
+    <row r="7" spans="1:3" ht="15.6">
       <c r="A7" s="9" t="s">
         <v>67</v>
       </c>
@@ -5428,13 +5429,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" spans="1:2" ht="17.399999999999999">
       <c r="A1" s="8" t="s">
         <v>58</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25">
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
@@ -5458,7 +5459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25">
+    <row r="4" spans="1:2" ht="15.6">
       <c r="A4" s="9" t="s">
         <v>62</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25">
+    <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="9" t="s">
         <v>63</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25">
+    <row r="6" spans="1:2" ht="15.6">
       <c r="A6" s="9" t="s">
         <v>64</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25">
+    <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="9" t="s">
         <v>65</v>
       </c>
@@ -5504,29 +5505,29 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
-    <col min="11" max="11" width="6.75" customWidth="1"/>
-    <col min="12" max="12" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="36.875" customWidth="1"/>
-    <col min="14" max="14" width="12.875" customWidth="1"/>
-    <col min="15" max="15" width="26.75" customWidth="1"/>
-    <col min="16" max="16" width="22.375" customWidth="1"/>
-    <col min="17" max="17" width="18.25" customWidth="1"/>
-    <col min="18" max="18" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="36.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="26.77734375" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75">
+    <row r="1" spans="1:14" ht="17.399999999999999">
       <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25">
+    <row r="2" spans="1:14" ht="15.6">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -5604,7 +5605,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25">
+    <row r="3" spans="1:14" ht="15.6">
       <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
@@ -5612,7 +5613,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>40</v>
@@ -5624,13 +5625,13 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="14.25">
+    <row r="4" spans="1:14" ht="15.6">
       <c r="A4" s="9" t="s">
         <v>82</v>
       </c>
@@ -5666,7 +5667,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="14.25">
+    <row r="5" spans="1:14" ht="15.6">
       <c r="A5" s="9" t="s">
         <v>82</v>
       </c>
@@ -5700,7 +5701,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25">
+    <row r="6" spans="1:14" ht="15.6">
       <c r="A6" s="9" t="s">
         <v>93</v>
       </c>
@@ -5760,9 +5761,9 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="14.25">
+    <row r="8" spans="1:14" ht="15.6">
       <c r="A8" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>136</v>
@@ -5810,7 +5811,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>232</v>
@@ -5840,7 +5841,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="14.25" hidden="1">
+    <row r="11" spans="1:14" ht="15.6" hidden="1">
       <c r="A11" s="28" t="s">
         <v>235</v>
       </c>
@@ -5876,7 +5877,7 @@
       <c r="M11" s="28"/>
       <c r="N11" s="28"/>
     </row>
-    <row r="12" spans="1:14" ht="14.25">
+    <row r="12" spans="1:14" ht="15.6">
       <c r="A12" s="28" t="s">
         <v>298</v>
       </c>
@@ -5910,7 +5911,7 @@
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25">
+    <row r="13" spans="1:14" ht="15.6">
       <c r="A13" s="28" t="s">
         <v>298</v>
       </c>
@@ -5944,7 +5945,7 @@
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
     </row>
-    <row r="14" spans="1:14" ht="14.25">
+    <row r="14" spans="1:14" ht="15.6">
       <c r="A14" s="28" t="s">
         <v>298</v>
       </c>
@@ -5978,15 +5979,15 @@
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25">
+    <row r="15" spans="1:14" ht="15.6">
       <c r="A15" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B15" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>329</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>330</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>132</v>
@@ -6002,15 +6003,15 @@
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25">
+    <row r="16" spans="1:14" ht="15.6">
       <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>325</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>40</v>
@@ -6036,15 +6037,15 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="14.25">
+    <row r="17" spans="1:14" ht="15.6">
       <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>40</v>
@@ -6056,21 +6057,21 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="14.25">
+    <row r="18" spans="1:14" ht="15.6">
       <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>343</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>40</v>
@@ -6086,15 +6087,15 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" ht="14.25">
+    <row r="19" spans="1:14" ht="15.6">
       <c r="A19" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>137</v>
@@ -6110,7 +6111,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" ht="14.25">
+    <row r="20" spans="1:14" ht="15.6">
       <c r="A20" s="9" t="s">
         <v>186</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>196</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
@@ -6134,7 +6135,7 @@
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
     </row>
-    <row r="21" spans="1:14" ht="14.25">
+    <row r="21" spans="1:14" ht="15.6">
       <c r="A21" s="9" t="s">
         <v>191</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>219</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
@@ -6158,7 +6159,7 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
     </row>
-    <row r="22" spans="1:14" ht="14.25">
+    <row r="22" spans="1:14" ht="15.6">
       <c r="A22" s="9" t="s">
         <v>208</v>
       </c>
@@ -6166,10 +6167,10 @@
         <v>209</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -6182,28 +6183,28 @@
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
     </row>
-    <row r="23" spans="1:14" ht="14.25">
+    <row r="23" spans="1:14" ht="15.6">
       <c r="A23" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="C23" s="31" t="s">
+      <c r="D23" s="31" t="s">
         <v>373</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>374</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="G23" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="G23" s="31" t="s">
-        <v>376</v>
-      </c>
       <c r="H23" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
@@ -6230,16 +6231,16 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="17.399999999999999">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -6256,7 +6257,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="9" t="s">
         <v>87</v>
       </c>
@@ -6273,7 +6274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="9" t="s">
         <v>98</v>
       </c>
@@ -6290,7 +6291,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="4" t="s">
         <v>100</v>
       </c>
@@ -6301,13 +6302,13 @@
         <v>43</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="4" t="s">
         <v>83</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>83</v>
@@ -6324,7 +6325,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25">
+    <row r="6" spans="1:5" ht="15.6">
       <c r="A6" s="9" t="s">
         <v>221</v>
       </c>
@@ -6341,7 +6342,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25">
+    <row r="7" spans="1:5" ht="15.6">
       <c r="A7" s="9" t="s">
         <v>101</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25">
+    <row r="8" spans="1:5" ht="15.6">
       <c r="A8" s="9" t="s">
         <v>101</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25">
+    <row r="10" spans="1:5" ht="15.6">
       <c r="A10" s="9" t="s">
         <v>136</v>
       </c>
@@ -6409,7 +6410,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25">
+    <row r="11" spans="1:5" ht="15.6">
       <c r="A11" s="9" t="s">
         <v>136</v>
       </c>
@@ -6477,7 +6478,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25">
+    <row r="15" spans="1:5" ht="15.6">
       <c r="A15" s="27" t="s">
         <v>234</v>
       </c>
@@ -6494,7 +6495,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25">
+    <row r="16" spans="1:5" ht="15.6">
       <c r="A16" s="28" t="s">
         <v>299</v>
       </c>
@@ -6511,7 +6512,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25">
+    <row r="17" spans="1:5" ht="15.6">
       <c r="A17" s="28" t="s">
         <v>300</v>
       </c>
@@ -6528,12 +6529,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25">
+    <row r="18" spans="1:5" ht="15.6">
       <c r="A18" s="28" t="s">
         <v>312</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>134</v>
@@ -6545,26 +6546,26 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.25">
+    <row r="19" spans="1:5" ht="15.6">
       <c r="A19" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="C19" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>328</v>
-      </c>
       <c r="D19" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6">
       <c r="A20" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>41</v>
@@ -6579,21 +6580,21 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.25">
+    <row r="21" spans="1:5" ht="15.6">
       <c r="A21" s="35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>376</v>
-      </c>
       <c r="E21" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -6620,16 +6621,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="2" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="17.399999999999999">
       <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
@@ -6649,7 +6650,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
+    <row r="2" spans="1:6" ht="15.6">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -6669,7 +6670,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
+    <row r="3" spans="1:6" ht="15.6">
       <c r="A3" s="13">
         <v>0</v>
       </c>
@@ -6680,7 +6681,7 @@
         <v>51</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>73</v>
@@ -6689,7 +6690,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
+    <row r="4" spans="1:6" ht="15.6">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -6700,7 +6701,7 @@
         <v>51</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>73</v>
